--- a/bbdd/BBDD-DICCIONARIO2021.xlsx
+++ b/bbdd/BBDD-DICCIONARIO2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablofernandezsato/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/Bibliov2/biblioteca/bbdd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6192E68-F4AB-2F47-BBDE-54697532C7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E00B951-C9B0-F340-8EFF-5C2C70049D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="1000" windowWidth="25040" windowHeight="13540" xr2:uid="{9B192285-0D9C-924D-9A44-91E15295BFF6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="112">
   <si>
     <t>AUTOR</t>
   </si>
@@ -364,6 +364,12 @@
   </si>
   <si>
     <t>RETO - LEIDOS</t>
+  </si>
+  <si>
+    <t>RETO-LIBROS</t>
+  </si>
+  <si>
+    <t>ID_RETO</t>
   </si>
 </sst>
 </file>
@@ -1171,171 +1177,267 @@
   </cellStyleXfs>
   <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1345,66 +1447,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1422,42 +1464,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1773,10 +1779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1750F57A-95B5-8442-8FEC-75A28EEDBF53}">
-  <dimension ref="B2:H136"/>
+  <dimension ref="B2:H142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="I136" sqref="I136"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="G142" sqref="G142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1788,2202 +1794,2313 @@
   <sheetData>
     <row r="2" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
     </row>
     <row r="4" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5">
-        <v>11</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="4">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>255</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="10" t="s">
+      <c r="F6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>255</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="14" t="s">
+      <c r="F7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>255</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="14" t="s">
+      <c r="F8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="14" t="s">
+      <c r="F9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>255</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="14" t="s">
+      <c r="F10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="14" t="s">
+      <c r="F11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>4</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="14" t="s">
+      <c r="F12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="86"/>
     </row>
     <row r="16" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="24">
-        <v>11</v>
-      </c>
-      <c r="E17" s="24" t="s">
+      <c r="D17" s="20">
+        <v>11</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="25" t="s">
+      <c r="F17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="28">
-        <v>11</v>
-      </c>
-      <c r="E18" s="28" t="s">
+      <c r="D18" s="24">
+        <v>11</v>
+      </c>
+      <c r="E18" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="29" t="s">
+      <c r="F18" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="25" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="26">
         <v>100</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="31" t="s">
+      <c r="F19" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="29">
         <v>100</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="34" t="s">
+      <c r="F20" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="20"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="86"/>
     </row>
     <row r="24" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="24">
-        <v>11</v>
-      </c>
-      <c r="E25" s="24" t="s">
+      <c r="D25" s="20">
+        <v>11</v>
+      </c>
+      <c r="E25" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="25" t="s">
+      <c r="F25" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="32">
         <v>255</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="37" t="s">
+      <c r="F26" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="29">
         <v>255</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="34" t="s">
+      <c r="F27" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="2:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="86"/>
     </row>
     <row r="31" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H31" s="22" t="s">
+      <c r="H31" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="24">
-        <v>11</v>
-      </c>
-      <c r="E32" s="24" t="s">
+      <c r="D32" s="20">
+        <v>11</v>
+      </c>
+      <c r="E32" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="25" t="s">
+      <c r="F32" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="30">
+      <c r="D33" s="26">
         <v>100</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="31" t="s">
+      <c r="F33" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="33">
+      <c r="D34" s="29">
         <v>100</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" s="34" t="s">
+      <c r="F34" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="36" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="2:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="20"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="86"/>
     </row>
     <row r="38" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="G38" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="22" t="s">
+      <c r="H38" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="24">
-        <v>11</v>
-      </c>
-      <c r="E39" s="24" t="s">
+      <c r="D39" s="20">
+        <v>11</v>
+      </c>
+      <c r="E39" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" s="25" t="s">
+      <c r="F39" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="36">
+      <c r="D40" s="32">
         <v>100</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="F40" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" s="37" t="s">
+      <c r="F40" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="33">
+      <c r="D41" s="29">
         <v>255</v>
       </c>
-      <c r="E41" s="33" t="s">
+      <c r="E41" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F41" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" s="34" t="s">
+      <c r="F41" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="2:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="38"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="85"/>
     </row>
     <row r="45" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="22" t="s">
+      <c r="F45" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="22" t="s">
+      <c r="G45" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H45" s="22" t="s">
+      <c r="H45" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="24">
-        <v>11</v>
-      </c>
-      <c r="E46" s="24" t="s">
+      <c r="D46" s="20">
+        <v>11</v>
+      </c>
+      <c r="E46" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" s="25" t="s">
+      <c r="F46" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="36">
+      <c r="D47" s="32">
         <v>100</v>
       </c>
-      <c r="E47" s="36" t="s">
+      <c r="E47" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="F47" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="37" t="s">
+      <c r="F47" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C48" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="33">
+      <c r="D48" s="29">
         <v>255</v>
       </c>
-      <c r="E48" s="33" t="s">
+      <c r="E48" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F48" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="34" t="s">
+      <c r="F48" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="50" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="2:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="87"/>
     </row>
     <row r="52" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="39" t="s">
+      <c r="C52" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="39" t="s">
+      <c r="D52" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="39" t="s">
+      <c r="E52" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="39" t="s">
+      <c r="F52" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="39" t="s">
+      <c r="G52" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H52" s="39" t="s">
+      <c r="H52" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="41" t="s">
+      <c r="C53" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="42">
-        <v>11</v>
-      </c>
-      <c r="E53" s="42" t="s">
+      <c r="D53" s="37">
+        <v>11</v>
+      </c>
+      <c r="E53" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="F53" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" s="43" t="s">
+      <c r="F53" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="38" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="44" t="s">
+      <c r="B54" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="45" t="s">
+      <c r="C54" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="46">
+      <c r="D54" s="41">
         <v>255</v>
       </c>
-      <c r="E54" s="46" t="s">
+      <c r="E54" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="F54" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" s="47" t="s">
+      <c r="F54" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="42" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B55" s="48" t="s">
+      <c r="B55" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="49" t="s">
+      <c r="C55" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="50">
-        <v>11</v>
-      </c>
-      <c r="E55" s="50" t="s">
+      <c r="D55" s="45">
+        <v>11</v>
+      </c>
+      <c r="E55" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F55" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" s="51" t="s">
+      <c r="F55" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="46" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="48" t="s">
+      <c r="B56" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C56" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="50">
-        <v>11</v>
-      </c>
-      <c r="E56" s="50" t="s">
+      <c r="D56" s="45">
+        <v>11</v>
+      </c>
+      <c r="E56" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="F56" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="H56" s="51" t="s">
+      <c r="F56" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="46" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="48" t="s">
+      <c r="B57" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="49" t="s">
+      <c r="C57" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="50">
+      <c r="D57" s="45">
         <v>1</v>
       </c>
-      <c r="E57" s="50" t="s">
+      <c r="E57" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="F57" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" s="51" t="s">
+      <c r="F57" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="46" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B58" s="48" t="s">
+      <c r="B58" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C58" s="49" t="s">
+      <c r="C58" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="50">
-        <v>11</v>
-      </c>
-      <c r="E58" s="50" t="s">
+      <c r="D58" s="45">
+        <v>11</v>
+      </c>
+      <c r="E58" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="F58" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="H58" s="51" t="s">
+      <c r="F58" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="46" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B59" s="48" t="s">
+      <c r="B59" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="49" t="s">
+      <c r="C59" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="50">
-        <v>11</v>
-      </c>
-      <c r="E59" s="50" t="s">
+      <c r="D59" s="45">
+        <v>11</v>
+      </c>
+      <c r="E59" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="F59" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="H59" s="51" t="s">
+      <c r="F59" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="46" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B60" s="48" t="s">
+      <c r="B60" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="49" t="s">
+      <c r="C60" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="50">
+      <c r="D60" s="45">
         <v>100</v>
       </c>
-      <c r="E60" s="50" t="s">
+      <c r="E60" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="F60" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="H60" s="51" t="s">
+      <c r="F60" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" s="46" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B61" s="48" t="s">
+      <c r="B61" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="49" t="s">
+      <c r="C61" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="50">
+      <c r="D61" s="45">
         <v>100</v>
       </c>
-      <c r="E61" s="50" t="s">
+      <c r="E61" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="F61" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="H61" s="51" t="s">
+      <c r="F61" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" s="46" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B62" s="48" t="s">
+      <c r="B62" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C62" s="49" t="s">
+      <c r="C62" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D62" s="50">
-        <v>11</v>
-      </c>
-      <c r="E62" s="50" t="s">
+      <c r="D62" s="45">
+        <v>11</v>
+      </c>
+      <c r="E62" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="F62" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="H62" s="51" t="s">
+      <c r="F62" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" s="46" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B63" s="48" t="s">
+      <c r="B63" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="49" t="s">
+      <c r="C63" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="50">
+      <c r="D63" s="45">
         <v>255</v>
       </c>
-      <c r="E63" s="50" t="s">
+      <c r="E63" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="F63" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="H63" s="51" t="s">
+      <c r="F63" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="46" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B64" s="48" t="s">
+      <c r="B64" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="49" t="s">
+      <c r="C64" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="D64" s="50"/>
-      <c r="E64" s="50" t="s">
+      <c r="D64" s="45"/>
+      <c r="E64" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F64" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="H64" s="51" t="s">
+      <c r="F64" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="46" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="65" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="52" t="s">
+      <c r="B65" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="C65" s="53" t="s">
+      <c r="C65" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D65" s="54"/>
-      <c r="E65" s="54" t="s">
+      <c r="D65" s="49"/>
+      <c r="E65" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="F65" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="H65" s="55" t="s">
+      <c r="F65" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" s="50" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="66" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="56" t="s">
+      <c r="B68" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="C68" s="57"/>
-      <c r="D68" s="57"/>
-      <c r="E68" s="57"/>
-      <c r="F68" s="57"/>
-      <c r="G68" s="57"/>
-      <c r="H68" s="58"/>
+      <c r="C68" s="89"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="89"/>
+      <c r="F68" s="89"/>
+      <c r="G68" s="89"/>
+      <c r="H68" s="90"/>
     </row>
     <row r="69" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="59" t="s">
+      <c r="B69" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F69" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="G69" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H69" s="60" t="s">
+      <c r="H69" s="52" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="61" t="s">
+      <c r="B70" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="5">
-        <v>11</v>
-      </c>
-      <c r="E70" s="5" t="s">
+      <c r="D70" s="4">
+        <v>11</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F70" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H70" s="62" t="s">
+      <c r="F70" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" s="54" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B71" s="63" t="s">
+      <c r="B71" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="13">
-        <v>11</v>
-      </c>
-      <c r="E71" s="13" t="s">
+      <c r="D71" s="12">
+        <v>11</v>
+      </c>
+      <c r="E71" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F71" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H71" s="64" t="s">
+      <c r="F71" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" s="56" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="65" t="s">
+      <c r="B72" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="66" t="s">
+      <c r="C72" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="67">
-        <v>11</v>
-      </c>
-      <c r="E72" s="67" t="s">
+      <c r="D72" s="59">
+        <v>11</v>
+      </c>
+      <c r="E72" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="F72" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="H72" s="68" t="s">
+      <c r="F72" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" s="60" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="74" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="75" spans="2:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="79" t="s">
+      <c r="B75" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="80"/>
-      <c r="D75" s="80"/>
-      <c r="E75" s="80"/>
-      <c r="F75" s="80"/>
-      <c r="G75" s="80"/>
-      <c r="H75" s="81"/>
+      <c r="C75" s="92"/>
+      <c r="D75" s="92"/>
+      <c r="E75" s="92"/>
+      <c r="F75" s="92"/>
+      <c r="G75" s="92"/>
+      <c r="H75" s="93"/>
     </row>
     <row r="76" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="21" t="s">
+      <c r="B76" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C76" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D76" s="22" t="s">
+      <c r="D76" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E76" s="22" t="s">
+      <c r="E76" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F76" s="22" t="s">
+      <c r="F76" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G76" s="22" t="s">
+      <c r="G76" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H76" s="22" t="s">
+      <c r="H76" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="69" t="s">
+      <c r="B77" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="70" t="s">
+      <c r="C77" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="70">
-        <v>11</v>
-      </c>
-      <c r="E77" s="70" t="s">
+      <c r="D77" s="62">
+        <v>11</v>
+      </c>
+      <c r="E77" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="F77" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="H77" s="71" t="s">
+      <c r="F77" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" s="63" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B78" s="72" t="s">
+      <c r="B78" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C78" s="73" t="s">
+      <c r="C78" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D78" s="74">
-        <v>11</v>
-      </c>
-      <c r="E78" s="74" t="s">
+      <c r="D78" s="66">
+        <v>11</v>
+      </c>
+      <c r="E78" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="F78" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="H78" s="75" t="s">
+      <c r="F78" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" s="67" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="79" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="76" t="s">
+      <c r="B79" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="C79" s="77" t="s">
+      <c r="C79" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D79" s="77">
+      <c r="D79" s="69">
         <v>255</v>
       </c>
-      <c r="E79" s="77" t="s">
+      <c r="E79" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="F79" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" s="77" t="s">
-        <v>19</v>
-      </c>
-      <c r="H79" s="78" t="s">
+      <c r="F79" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="H79" s="70" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="80" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="81" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="82" spans="2:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="82" t="s">
+      <c r="B82" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="C82" s="83"/>
-      <c r="D82" s="83"/>
-      <c r="E82" s="83"/>
-      <c r="F82" s="83"/>
-      <c r="G82" s="83"/>
-      <c r="H82" s="84"/>
+      <c r="C82" s="95"/>
+      <c r="D82" s="95"/>
+      <c r="E82" s="95"/>
+      <c r="F82" s="95"/>
+      <c r="G82" s="95"/>
+      <c r="H82" s="96"/>
     </row>
     <row r="83" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="F83" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="G83" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="H83" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="85" t="s">
+      <c r="B84" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="86" t="s">
+      <c r="C84" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="87">
-        <v>11</v>
-      </c>
-      <c r="E84" s="87" t="s">
+      <c r="D84" s="73">
+        <v>11</v>
+      </c>
+      <c r="E84" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="F84" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="H84" s="88" t="s">
+      <c r="F84" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="G84" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" s="74" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B85" s="89" t="s">
+      <c r="B85" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="C85" s="90" t="s">
+      <c r="C85" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="D85" s="91">
-        <v>11</v>
-      </c>
-      <c r="E85" s="91" t="s">
+      <c r="D85" s="77">
+        <v>11</v>
+      </c>
+      <c r="E85" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="F85" s="91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" s="91" t="s">
-        <v>19</v>
-      </c>
-      <c r="H85" s="92" t="s">
+      <c r="F85" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="H85" s="78" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="86" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="93" t="s">
+      <c r="B86" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="C86" s="94" t="s">
+      <c r="C86" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="D86" s="95">
-        <v>11</v>
-      </c>
-      <c r="E86" s="95" t="s">
+      <c r="D86" s="81">
+        <v>11</v>
+      </c>
+      <c r="E86" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="F86" s="95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="H86" s="96" t="s">
+      <c r="F86" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="H86" s="82" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="88" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="2:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="18" t="s">
+      <c r="B89" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="20"/>
+      <c r="C89" s="84"/>
+      <c r="D89" s="84"/>
+      <c r="E89" s="84"/>
+      <c r="F89" s="84"/>
+      <c r="G89" s="84"/>
+      <c r="H89" s="86"/>
     </row>
     <row r="90" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="21" t="s">
+      <c r="B90" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C90" s="22" t="s">
+      <c r="C90" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D90" s="22" t="s">
+      <c r="D90" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E90" s="22" t="s">
+      <c r="E90" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F90" s="22" t="s">
+      <c r="F90" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G90" s="22" t="s">
+      <c r="G90" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H90" s="22" t="s">
+      <c r="H90" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="23" t="s">
+      <c r="B91" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C91" s="24" t="s">
+      <c r="C91" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D91" s="24">
-        <v>11</v>
-      </c>
-      <c r="E91" s="24" t="s">
+      <c r="D91" s="20">
+        <v>11</v>
+      </c>
+      <c r="E91" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F91" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H91" s="25" t="s">
+      <c r="F91" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G91" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B92" s="35" t="s">
+      <c r="B92" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C92" s="36" t="s">
+      <c r="C92" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D92" s="36">
+      <c r="D92" s="32">
         <v>255</v>
       </c>
-      <c r="E92" s="36" t="s">
+      <c r="E92" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="F92" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H92" s="37" t="s">
+      <c r="F92" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B93" s="35" t="s">
+      <c r="B93" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C93" s="36" t="s">
+      <c r="C93" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D93" s="36">
-        <v>11</v>
-      </c>
-      <c r="E93" s="36" t="s">
+      <c r="D93" s="32">
+        <v>11</v>
+      </c>
+      <c r="E93" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F93" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="H93" s="37" t="s">
+      <c r="F93" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="32" t="s">
+      <c r="B94" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C94" s="33" t="s">
+      <c r="C94" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D94" s="33">
+      <c r="D94" s="29">
         <v>255</v>
       </c>
-      <c r="E94" s="33" t="s">
+      <c r="E94" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="F94" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H94" s="34" t="s">
+      <c r="F94" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="96" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="97" spans="2:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="18" t="s">
+      <c r="B97" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="20"/>
+      <c r="C97" s="84"/>
+      <c r="D97" s="84"/>
+      <c r="E97" s="84"/>
+      <c r="F97" s="84"/>
+      <c r="G97" s="84"/>
+      <c r="H97" s="86"/>
     </row>
     <row r="98" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="21" t="s">
+      <c r="B98" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C98" s="22" t="s">
+      <c r="C98" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D98" s="22" t="s">
+      <c r="D98" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E98" s="22" t="s">
+      <c r="E98" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F98" s="22" t="s">
+      <c r="F98" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G98" s="22" t="s">
+      <c r="G98" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H98" s="22" t="s">
+      <c r="H98" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="99" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="23" t="s">
+      <c r="B99" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="24" t="s">
+      <c r="C99" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D99" s="24">
-        <v>11</v>
-      </c>
-      <c r="E99" s="24" t="s">
+      <c r="D99" s="20">
+        <v>11</v>
+      </c>
+      <c r="E99" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F99" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G99" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H99" s="25" t="s">
+      <c r="F99" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G99" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B100" s="35" t="s">
+      <c r="B100" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="C100" s="36" t="s">
+      <c r="C100" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D100" s="36">
-        <v>11</v>
-      </c>
-      <c r="E100" s="36" t="s">
+      <c r="D100" s="32">
+        <v>11</v>
+      </c>
+      <c r="E100" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="F100" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H100" s="37" t="s">
+      <c r="F100" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B101" s="35" t="s">
+      <c r="B101" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="C101" s="36" t="s">
+      <c r="C101" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D101" s="36">
-        <v>11</v>
-      </c>
-      <c r="E101" s="36" t="s">
+      <c r="D101" s="32">
+        <v>11</v>
+      </c>
+      <c r="E101" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F101" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="H101" s="37" t="s">
+      <c r="F101" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="102" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="32" t="s">
+      <c r="B102" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C102" s="33" t="s">
+      <c r="C102" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D102" s="33">
+      <c r="D102" s="29">
         <v>255</v>
       </c>
-      <c r="E102" s="33" t="s">
+      <c r="E102" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F102" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H102" s="34" t="s">
+      <c r="F102" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="103" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="104" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="105" spans="2:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="18" t="s">
+      <c r="B105" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="19"/>
-      <c r="H105" s="38"/>
+      <c r="C105" s="84"/>
+      <c r="D105" s="84"/>
+      <c r="E105" s="84"/>
+      <c r="F105" s="84"/>
+      <c r="G105" s="84"/>
+      <c r="H105" s="85"/>
     </row>
     <row r="106" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="21" t="s">
+      <c r="B106" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C106" s="22" t="s">
+      <c r="C106" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D106" s="22" t="s">
+      <c r="D106" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E106" s="22" t="s">
+      <c r="E106" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F106" s="22" t="s">
+      <c r="F106" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G106" s="22" t="s">
+      <c r="G106" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H106" s="22" t="s">
+      <c r="H106" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="107" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="23" t="s">
+      <c r="B107" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C107" s="24" t="s">
+      <c r="C107" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D107" s="24">
-        <v>11</v>
-      </c>
-      <c r="E107" s="24" t="s">
+      <c r="D107" s="20">
+        <v>11</v>
+      </c>
+      <c r="E107" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F107" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G107" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H107" s="25" t="s">
+      <c r="F107" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G107" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H107" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B108" s="35" t="s">
+      <c r="B108" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="C108" s="36" t="s">
+      <c r="C108" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D108" s="36">
-        <v>11</v>
-      </c>
-      <c r="E108" s="36" t="s">
+      <c r="D108" s="32">
+        <v>11</v>
+      </c>
+      <c r="E108" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="F108" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H108" s="37" t="s">
+      <c r="F108" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H108" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B109" s="35" t="s">
+      <c r="B109" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="C109" s="36" t="s">
+      <c r="C109" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D109" s="36">
-        <v>11</v>
-      </c>
-      <c r="E109" s="36" t="s">
+      <c r="D109" s="32">
+        <v>11</v>
+      </c>
+      <c r="E109" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="F109" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="H109" s="37" t="s">
+      <c r="F109" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H109" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="110" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="32" t="s">
+      <c r="B110" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C110" s="33" t="s">
+      <c r="C110" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D110" s="33">
+      <c r="D110" s="29">
         <v>255</v>
       </c>
-      <c r="E110" s="33" t="s">
+      <c r="E110" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F110" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H110" s="34" t="s">
+      <c r="F110" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H110" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="111" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="112" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="113" spans="2:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="18" t="s">
+      <c r="B113" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19"/>
-      <c r="H113" s="20"/>
+      <c r="C113" s="84"/>
+      <c r="D113" s="84"/>
+      <c r="E113" s="84"/>
+      <c r="F113" s="84"/>
+      <c r="G113" s="84"/>
+      <c r="H113" s="86"/>
     </row>
     <row r="114" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="21" t="s">
+      <c r="B114" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C114" s="22" t="s">
+      <c r="C114" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D114" s="22" t="s">
+      <c r="D114" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E114" s="22" t="s">
+      <c r="E114" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F114" s="22" t="s">
+      <c r="F114" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G114" s="22" t="s">
+      <c r="G114" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H114" s="22" t="s">
+      <c r="H114" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="115" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="23" t="s">
+      <c r="B115" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C115" s="24" t="s">
+      <c r="C115" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D115" s="24">
+      <c r="D115" s="20">
         <v>2</v>
       </c>
-      <c r="E115" s="24" t="s">
+      <c r="E115" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="F115" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G115" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H115" s="25" t="s">
+      <c r="F115" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G115" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="116" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="32" t="s">
+      <c r="B116" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C116" s="33" t="s">
+      <c r="C116" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D116" s="33">
+      <c r="D116" s="29">
         <v>100</v>
       </c>
-      <c r="E116" s="33" t="s">
+      <c r="E116" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F116" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H116" s="34" t="s">
+      <c r="F116" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G116" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H116" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="117" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="118" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="119" spans="2:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="18" t="s">
+      <c r="B119" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="C119" s="19"/>
-      <c r="D119" s="19"/>
-      <c r="E119" s="19"/>
-      <c r="F119" s="19"/>
-      <c r="G119" s="19"/>
-      <c r="H119" s="20"/>
+      <c r="C119" s="84"/>
+      <c r="D119" s="84"/>
+      <c r="E119" s="84"/>
+      <c r="F119" s="84"/>
+      <c r="G119" s="84"/>
+      <c r="H119" s="86"/>
     </row>
     <row r="120" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="21" t="s">
+      <c r="B120" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C120" s="22" t="s">
+      <c r="C120" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D120" s="22" t="s">
+      <c r="D120" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E120" s="22" t="s">
+      <c r="E120" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F120" s="22" t="s">
+      <c r="F120" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G120" s="22" t="s">
+      <c r="G120" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H120" s="22" t="s">
+      <c r="H120" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="121" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="23" t="s">
+      <c r="B121" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C121" s="24" t="s">
+      <c r="C121" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D121" s="24">
+      <c r="D121" s="20">
         <v>2</v>
       </c>
-      <c r="E121" s="24" t="s">
+      <c r="E121" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F121" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H121" s="25" t="s">
+      <c r="F121" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G121" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H121" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B122" s="35" t="s">
+      <c r="B122" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="C122" s="36" t="s">
+      <c r="C122" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D122" s="36">
+      <c r="D122" s="32">
         <v>5</v>
       </c>
-      <c r="E122" s="36" t="s">
+      <c r="E122" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="F122" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="H122" s="37" t="s">
+      <c r="F122" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G122" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H122" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B123" s="35" t="s">
+      <c r="B123" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C123" s="36" t="s">
+      <c r="C123" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D123" s="36">
+      <c r="D123" s="32">
         <v>5</v>
       </c>
-      <c r="E123" s="36" t="s">
+      <c r="E123" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="F123" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="H123" s="37" t="s">
+      <c r="F123" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G123" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H123" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B124" s="35" t="s">
+      <c r="B124" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="C124" s="36" t="s">
+      <c r="C124" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D124" s="36">
+      <c r="D124" s="32">
         <v>5</v>
       </c>
-      <c r="E124" s="36" t="s">
+      <c r="E124" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="F124" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H124" s="37" t="s">
+      <c r="F124" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G124" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H124" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B125" s="26" t="s">
+      <c r="B125" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C125" s="30" t="s">
+      <c r="C125" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D125" s="30"/>
-      <c r="E125" s="30" t="s">
+      <c r="D125" s="26"/>
+      <c r="E125" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="F125" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G125" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="H125" s="31" t="s">
+      <c r="F125" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G125" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H125" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="126" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="32" t="s">
+      <c r="B126" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="C126" s="33" t="s">
+      <c r="C126" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D126" s="33"/>
-      <c r="E126" s="33" t="s">
+      <c r="D126" s="29"/>
+      <c r="E126" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="F126" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H126" s="34" t="s">
+      <c r="F126" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G126" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H126" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="127" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="128" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="129" spans="2:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="18" t="s">
+      <c r="B129" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="C129" s="19"/>
-      <c r="D129" s="19"/>
-      <c r="E129" s="19"/>
-      <c r="F129" s="19"/>
-      <c r="G129" s="19"/>
-      <c r="H129" s="20"/>
+      <c r="C129" s="84"/>
+      <c r="D129" s="84"/>
+      <c r="E129" s="84"/>
+      <c r="F129" s="84"/>
+      <c r="G129" s="84"/>
+      <c r="H129" s="86"/>
     </row>
     <row r="130" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="21" t="s">
+      <c r="B130" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C130" s="22" t="s">
+      <c r="C130" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D130" s="22" t="s">
+      <c r="D130" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E130" s="22" t="s">
+      <c r="E130" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F130" s="22" t="s">
+      <c r="F130" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G130" s="22" t="s">
+      <c r="G130" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H130" s="22" t="s">
+      <c r="H130" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="131" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="23" t="s">
+      <c r="B131" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C131" s="24" t="s">
+      <c r="C131" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D131" s="24">
-        <v>11</v>
-      </c>
-      <c r="E131" s="24" t="s">
+      <c r="D131" s="20">
+        <v>11</v>
+      </c>
+      <c r="E131" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="F131" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G131" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H131" s="25" t="s">
+      <c r="F131" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G131" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H131" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B132" s="35" t="s">
+      <c r="B132" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="C132" s="36" t="s">
+      <c r="C132" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D132" s="36">
-        <v>11</v>
-      </c>
-      <c r="E132" s="36" t="s">
+      <c r="D132" s="32">
+        <v>11</v>
+      </c>
+      <c r="E132" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="F132" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H132" s="37" t="s">
+      <c r="F132" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G132" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H132" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B133" s="26" t="s">
+      <c r="B133" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C133" s="30" t="s">
+      <c r="C133" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D133" s="30">
-        <v>11</v>
-      </c>
-      <c r="E133" s="30" t="s">
+      <c r="D133" s="26">
+        <v>11</v>
+      </c>
+      <c r="E133" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="F133" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="H133" s="31" t="s">
+      <c r="F133" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H133" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B134" s="26" t="s">
+      <c r="B134" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C134" s="30" t="s">
+      <c r="C134" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D134" s="30">
-        <v>11</v>
-      </c>
-      <c r="E134" s="30" t="s">
+      <c r="D134" s="26">
+        <v>11</v>
+      </c>
+      <c r="E134" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="F134" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="H134" s="31" t="s">
+      <c r="F134" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H134" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="135" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="32" t="s">
+      <c r="B135" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="C135" s="33" t="s">
+      <c r="C135" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D135" s="33">
-        <v>11</v>
-      </c>
-      <c r="E135" s="33" t="s">
+      <c r="D135" s="29">
+        <v>11</v>
+      </c>
+      <c r="E135" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="F135" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H135" s="34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="136" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="F135" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G135" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H135" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="2:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="C137" s="84"/>
+      <c r="D137" s="84"/>
+      <c r="E137" s="84"/>
+      <c r="F137" s="84"/>
+      <c r="G137" s="84"/>
+      <c r="H137" s="86"/>
+    </row>
+    <row r="138" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E138" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F138" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G138" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H138" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="20">
+        <v>11</v>
+      </c>
+      <c r="E139" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F139" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G139" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H139" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B140" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C140" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="32">
+        <v>11</v>
+      </c>
+      <c r="E140" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="F140" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G140" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H140" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C141" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="29">
+        <v>11</v>
+      </c>
+      <c r="E141" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F141" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G141" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H141" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B137:H137"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B37:H37"/>
     <mergeCell ref="B105:H105"/>
     <mergeCell ref="B113:H113"/>
     <mergeCell ref="B119:H119"/>
@@ -3994,12 +4111,6 @@
     <mergeCell ref="B82:H82"/>
     <mergeCell ref="B89:H89"/>
     <mergeCell ref="B97:H97"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B44:H44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
